--- a/django_backend/var/sys/screen/core/ScreenDfn.xlsx
+++ b/django_backend/var/sys/screen/core/ScreenDfn.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="510">
   <si>
     <t>Do not modify this column</t>
   </si>
@@ -216,12 +216,12 @@
     <t>core.models.ScreenFieldGroup</t>
   </si>
   <si>
+    <t>fieldGroupRcs</t>
+  </si>
+  <si>
     <t>seq</t>
   </si>
   <si>
-    <t>fieldGroupRcs</t>
-  </si>
-  <si>
     <t>fieldRcs</t>
   </si>
   <si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>fgHeaderFooterToolbar</t>
+  </si>
+  <si>
+    <t>dialogCopyPramsFg</t>
   </si>
   <si>
     <t>dialogWidgetPramsFg</t>
@@ -555,6 +558,10 @@
   </si>
   <si>
     <t>Create CSV file</t>
+  </si>
+  <si>
+    <t>icon: images/action_button.gif
+type: normal</t>
   </si>
   <si>
     <t>createCSVFile</t>
@@ -741,6 +748,10 @@
     <t>Create a Copy</t>
   </si>
   <si>
+    <t>icon: images/new_button.gif
+dialog: dialogMessage:Set the Screen ID of the new copied page;dialogName:copyPramsDialog</t>
+  </si>
+  <si>
     <t>copyScreen</t>
   </si>
   <si>
@@ -753,6 +764,12 @@
     <t>exportScreen</t>
   </si>
   <si>
+    <t>rsSeq</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
     <t>rsNmField</t>
   </si>
   <si>
@@ -873,6 +890,15 @@
     <t>data_page_size</t>
   </si>
   <si>
+    <t>listLayoutParams</t>
+  </si>
+  <si>
+    <t>outer_layout_params</t>
+  </si>
+  <si>
+    <t>listHtml</t>
+  </si>
+  <si>
     <t>listFgAdditionalPropsField</t>
   </si>
   <si>
@@ -892,9 +918,6 @@
   </si>
   <si>
     <t>dtlFgSeqField</t>
-  </si>
-  <si>
-    <t>Seq</t>
   </si>
   <si>
     <t>dtlFgNmField</t>
@@ -954,9 +977,6 @@
   </si>
   <si>
     <t>dtlFgOuterLayoutParamsField</t>
-  </si>
-  <si>
-    <t>outer_layout_params</t>
   </si>
   <si>
     <t>dtlFgInnerLayoutTpField</t>
@@ -1034,9 +1054,6 @@
     <t>fwidgetParametersField</t>
   </si>
   <si>
-    <t>widget parameters</t>
-  </si>
-  <si>
     <t>icon:images/goto_sbutton.gif
 data:[]
 dialog: dialogBeforeDisplayEvent:postRow;dialogName:widgetPramsDialog</t>
@@ -1063,9 +1080,6 @@
     <t>fvalidationField</t>
   </si>
   <si>
-    <t>validation</t>
-  </si>
-  <si>
     <t>md_validation</t>
   </si>
   <si>
@@ -1392,6 +1406,12 @@
     <t>deleteFgHeaderFooter</t>
   </si>
   <si>
+    <t>screenSn</t>
+  </si>
+  <si>
+    <t>New Screen ID</t>
+  </si>
+  <si>
     <t>formatField1</t>
   </si>
   <si>
@@ -1527,6 +1547,9 @@
     <t>additionalPropsDialog</t>
   </si>
   <si>
+    <t>copyPramsDialog</t>
+  </si>
+  <si>
     <t>Main Screen</t>
   </si>
   <si>
@@ -1572,7 +1595,7 @@
     <t>One tailor made javascript for each layout</t>
   </si>
   <si>
-    <t>20240228094325</t>
+    <t>20240311155402</t>
   </si>
 </sst>
 </file>
@@ -2120,10 +2143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD220"/>
+  <dimension ref="A1:AD226"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2264,7 +2287,9 @@
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
@@ -2304,7 +2329,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>33</v>
@@ -2473,15 +2498,13 @@
         <v>57</v>
       </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9">
       <c r="C25" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>47</v>
@@ -2491,7 +2514,7 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -2508,7 +2531,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -2524,7 +2547,9 @@
         <v>63</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
@@ -2899,7 +2924,7 @@
         <v>108</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -3256,9 +3281,7 @@
         <v>95</v>
       </c>
       <c r="E55" s="14"/>
-      <c r="F55" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14" t="s">
         <v>26</v>
@@ -3281,12 +3304,16 @@
         <v>128</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="F56" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="H56" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
@@ -3302,19 +3329,15 @@
     </row>
     <row r="57" spans="1:20">
       <c r="C57" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="E57" s="14"/>
-      <c r="F57" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="F57" s="14"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
@@ -3329,180 +3352,182 @@
       <c r="T57" s="14"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="C59" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="K60" s="11"/>
-      <c r="L60" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="C61" s="11"/>
-      <c r="D61" s="11" t="s">
+      <c r="K61" s="11"/>
+      <c r="L61" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="13" t="s">
+    </row>
+    <row r="62" spans="1:20">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="K61" s="19"/>
-      <c r="L61" s="23" t="s">
+      <c r="I62" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="M61" s="22"/>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="9" t="s">
+      <c r="K62" s="19"/>
+      <c r="L62" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="M62" s="22"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="B63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="D63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="G63" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J62" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="K62" s="12" t="s">
+      <c r="J63" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="K63" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="L63" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="M63" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="O62" s="5" t="s">
+      <c r="N63" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="P62" s="5" t="s">
+      <c r="O63" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P63" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
-      <c r="B63" s="3"/>
-      <c r="C63" s="14" t="s">
+    <row r="64" spans="1:20">
+      <c r="B64" s="3"/>
+      <c r="C64" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="14" t="s">
+      <c r="D64" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14" t="s">
+      <c r="E64" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="C64" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
-      <c r="N64" s="14" t="s">
-        <v>156</v>
-      </c>
+      <c r="N64" s="14"/>
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
     </row>
     <row r="65" spans="3:16">
-      <c r="C65" s="14"/>
+      <c r="C65" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="D65" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
       <c r="N65" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
@@ -3510,25 +3535,25 @@
     <row r="66" spans="3:16">
       <c r="C66" s="14"/>
       <c r="D66" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
       <c r="N66" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
@@ -3536,25 +3561,25 @@
     <row r="67" spans="3:16">
       <c r="C67" s="14"/>
       <c r="D67" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
       <c r="N67" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O67" s="14"/>
       <c r="P67" s="14"/>
@@ -3562,256 +3587,256 @@
     <row r="68" spans="3:16">
       <c r="C68" s="14"/>
       <c r="D68" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
       <c r="N68" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O68" s="14"/>
       <c r="P68" s="14"/>
     </row>
     <row r="69" spans="3:16">
-      <c r="C69" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="C69" s="14"/>
       <c r="D69" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>176</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="K69" s="14"/>
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
+      <c r="N69" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
     </row>
     <row r="70" spans="3:16">
       <c r="C70" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J70" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="K70" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
       <c r="N70" s="14"/>
-      <c r="O70" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="O70" s="14"/>
       <c r="P70" s="14"/>
     </row>
     <row r="71" spans="3:16">
-      <c r="C71" s="14"/>
+      <c r="C71" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="D71" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J71" s="14"/>
       <c r="K71" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P71" s="14"/>
     </row>
     <row r="72" spans="3:16">
       <c r="C72" s="14"/>
       <c r="D72" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J72" s="14"/>
       <c r="K72" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
       <c r="N72" s="14"/>
       <c r="O72" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P72" s="14"/>
     </row>
     <row r="73" spans="3:16">
       <c r="C73" s="14"/>
       <c r="D73" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J73" s="14"/>
       <c r="K73" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P73" s="14"/>
     </row>
     <row r="74" spans="3:16">
       <c r="C74" s="14"/>
       <c r="D74" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>193</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J74" s="14" t="s">
-        <v>194</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J74" s="14"/>
       <c r="K74" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="P74" s="14"/>
     </row>
     <row r="75" spans="3:16">
       <c r="C75" s="14"/>
       <c r="D75" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J75" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="K75" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
       <c r="N75" s="14"/>
       <c r="O75" s="14" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P75" s="14"/>
     </row>
     <row r="76" spans="3:16">
       <c r="C76" s="14"/>
       <c r="D76" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J76" s="14"/>
       <c r="K76" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
       <c r="N76" s="14"/>
       <c r="O76" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P76" s="14"/>
     </row>
     <row r="77" spans="3:16">
       <c r="C77" s="14"/>
       <c r="D77" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J77" s="14"/>
       <c r="K77" s="14" t="s">
@@ -3821,7 +3846,7 @@
       <c r="M77" s="14"/>
       <c r="N77" s="14"/>
       <c r="O77" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P77" s="14"/>
     </row>
@@ -3831,106 +3856,104 @@
         <v>206</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J78" s="14"/>
       <c r="K78" s="14" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
       <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
+      <c r="O78" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="P78" s="14"/>
     </row>
     <row r="79" spans="3:16">
       <c r="C79" s="14"/>
       <c r="D79" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>210</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="J79" s="14"/>
       <c r="K79" s="14" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
       <c r="N79" s="14"/>
-      <c r="O79" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="O79" s="14"/>
       <c r="P79" s="14"/>
     </row>
     <row r="80" spans="3:16">
       <c r="C80" s="14"/>
       <c r="D80" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="14" t="s">
         <v>212</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>213</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J80" s="14"/>
       <c r="K80" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
       <c r="O80" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P80" s="14"/>
     </row>
     <row r="81" spans="3:16">
       <c r="C81" s="14"/>
       <c r="D81" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>216</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="J81" s="14"/>
       <c r="K81" s="14" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
       <c r="N81" s="14"/>
       <c r="O81" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P81" s="14"/>
     </row>
     <row r="82" spans="3:16">
-      <c r="C82" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="C82" s="14"/>
       <c r="D82" s="14" t="s">
         <v>217</v>
       </c>
@@ -3941,42 +3964,44 @@
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J82" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="K82" s="14"/>
+        <v>201</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
-      <c r="N82" s="14" t="s">
+      <c r="N82" s="14"/>
+      <c r="O82" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="P82" s="14"/>
+    </row>
+    <row r="83" spans="3:16">
+      <c r="C83" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="O82" s="14"/>
-      <c r="P82" s="14"/>
-    </row>
-    <row r="83" spans="3:16">
-      <c r="C83" s="14"/>
-      <c r="D83" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
       <c r="N83" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
@@ -3984,25 +4009,25 @@
     <row r="84" spans="3:16">
       <c r="C84" s="14"/>
       <c r="D84" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
       <c r="N84" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
@@ -4010,25 +4035,25 @@
     <row r="85" spans="3:16">
       <c r="C85" s="14"/>
       <c r="D85" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
       <c r="N85" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
@@ -4036,19 +4061,19 @@
     <row r="86" spans="3:16">
       <c r="C86" s="14"/>
       <c r="D86" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>233</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
@@ -4060,50 +4085,50 @@
       <c r="P86" s="14"/>
     </row>
     <row r="87" spans="3:16">
-      <c r="C87" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="C87" s="14"/>
       <c r="D87" s="14" t="s">
         <v>235</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14" t="s">
-        <v>236</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K87" s="14"/>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="N87" s="14" t="s">
+        <v>237</v>
+      </c>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
     </row>
     <row r="88" spans="3:16">
-      <c r="C88" s="14"/>
+      <c r="C88" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="D88" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>238</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="F88" s="14"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J88" s="14"/>
       <c r="K88" s="14" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
@@ -4117,13 +4142,13 @@
         <v>240</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J89" s="14"/>
       <c r="K89" s="14" t="s">
@@ -4141,17 +4166,19 @@
         <v>242</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J90" s="14"/>
       <c r="K90" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
@@ -4162,20 +4189,20 @@
     <row r="91" spans="3:16">
       <c r="C91" s="14"/>
       <c r="D91" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J91" s="14"/>
       <c r="K91" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
@@ -4186,20 +4213,20 @@
     <row r="92" spans="3:16">
       <c r="C92" s="14"/>
       <c r="D92" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J92" s="14"/>
       <c r="K92" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
@@ -4210,20 +4237,20 @@
     <row r="93" spans="3:16">
       <c r="C93" s="14"/>
       <c r="D93" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J93" s="14"/>
       <c r="K93" s="14" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
@@ -4232,52 +4259,46 @@
       <c r="P93" s="14"/>
     </row>
     <row r="94" spans="3:16">
-      <c r="C94" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="C94" s="14"/>
       <c r="D94" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J94" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="K94" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
-      <c r="N94" s="14" t="s">
-        <v>252</v>
-      </c>
+      <c r="N94" s="14"/>
       <c r="O94" s="14"/>
       <c r="P94" s="14"/>
     </row>
     <row r="95" spans="3:16">
-      <c r="C95" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="C95" s="14"/>
       <c r="D95" s="14" t="s">
         <v>253</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J95" s="14"/>
       <c r="K95" s="14" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
@@ -4286,46 +4307,52 @@
       <c r="P95" s="14"/>
     </row>
     <row r="96" spans="3:16">
-      <c r="C96" s="14"/>
+      <c r="C96" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="D96" s="14" t="s">
         <v>255</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14" t="s">
-        <v>256</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K96" s="14"/>
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
+      <c r="N96" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
     </row>
     <row r="97" spans="3:16">
-      <c r="C97" s="14"/>
+      <c r="C97" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="D97" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J97" s="14"/>
       <c r="K97" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
@@ -4336,20 +4363,20 @@
     <row r="98" spans="3:16">
       <c r="C98" s="14"/>
       <c r="D98" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J98" s="14"/>
       <c r="K98" s="14" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
@@ -4360,20 +4387,20 @@
     <row r="99" spans="3:16">
       <c r="C99" s="14"/>
       <c r="D99" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J99" s="14"/>
       <c r="K99" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
@@ -4384,20 +4411,20 @@
     <row r="100" spans="3:16">
       <c r="C100" s="14"/>
       <c r="D100" s="14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J100" s="14"/>
       <c r="K100" s="14" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
@@ -4408,20 +4435,20 @@
     <row r="101" spans="3:16">
       <c r="C101" s="14"/>
       <c r="D101" s="14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J101" s="14"/>
       <c r="K101" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
@@ -4432,20 +4459,20 @@
     <row r="102" spans="3:16">
       <c r="C102" s="14"/>
       <c r="D102" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J102" s="14"/>
       <c r="K102" s="14" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
@@ -4456,20 +4483,20 @@
     <row r="103" spans="3:16">
       <c r="C103" s="14"/>
       <c r="D103" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J103" s="14"/>
       <c r="K103" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
@@ -4480,20 +4507,20 @@
     <row r="104" spans="3:16">
       <c r="C104" s="14"/>
       <c r="D104" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J104" s="14"/>
       <c r="K104" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
@@ -4504,20 +4531,20 @@
     <row r="105" spans="3:16">
       <c r="C105" s="14"/>
       <c r="D105" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J105" s="14"/>
       <c r="K105" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
@@ -4528,20 +4555,20 @@
     <row r="106" spans="3:16">
       <c r="C106" s="14"/>
       <c r="D106" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J106" s="14"/>
       <c r="K106" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
@@ -4552,20 +4579,20 @@
     <row r="107" spans="3:16">
       <c r="C107" s="14"/>
       <c r="D107" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J107" s="14"/>
       <c r="K107" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
@@ -4576,20 +4603,20 @@
     <row r="108" spans="3:16">
       <c r="C108" s="14"/>
       <c r="D108" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J108" s="14"/>
       <c r="K108" s="14" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
@@ -4600,53 +4627,49 @@
     <row r="109" spans="3:16">
       <c r="C109" s="14"/>
       <c r="D109" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E109" s="14"/>
+        <v>280</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="J109" s="14"/>
       <c r="K109" s="14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
-      <c r="N109" s="14" t="s">
-        <v>280</v>
-      </c>
+      <c r="N109" s="14"/>
       <c r="O109" s="14"/>
       <c r="P109" s="14"/>
     </row>
     <row r="110" spans="3:16">
-      <c r="C110" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="C110" s="14"/>
       <c r="D110" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>282</v>
+        <v>92</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J110" s="14"/>
       <c r="K110" s="14" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
-      <c r="O110" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="O110" s="14"/>
       <c r="P110" s="14"/>
     </row>
     <row r="111" spans="3:16">
@@ -4655,363 +4678,355 @@
         <v>283</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J111" s="14"/>
       <c r="K111" s="14" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
       <c r="N111" s="14"/>
-      <c r="O111" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="O111" s="14"/>
       <c r="P111" s="14"/>
     </row>
     <row r="112" spans="3:16">
       <c r="C112" s="14"/>
       <c r="D112" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J112" s="14" t="s">
-        <v>285</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J112" s="14"/>
       <c r="K112" s="14" t="s">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="L112" s="14"/>
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>
-      <c r="O112" s="14" t="s">
-        <v>196</v>
-      </c>
+      <c r="O112" s="14"/>
       <c r="P112" s="14"/>
     </row>
     <row r="113" spans="3:16">
       <c r="C113" s="14"/>
       <c r="D113" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>81</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="J113" s="14"/>
       <c r="K113" s="14" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="L113" s="14"/>
       <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="N113" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="O113" s="14"/>
       <c r="P113" s="14"/>
     </row>
     <row r="114" spans="3:16">
-      <c r="C114" s="14"/>
+      <c r="C114" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="D114" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J114" s="14" t="s">
-        <v>289</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J114" s="14"/>
       <c r="K114" s="14" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
       <c r="N114" s="14"/>
       <c r="O114" s="14" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="P114" s="14"/>
     </row>
     <row r="115" spans="3:16">
       <c r="C115" s="14"/>
       <c r="D115" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J115" s="14"/>
       <c r="K115" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
       <c r="N115" s="14"/>
-      <c r="O115" s="14"/>
+      <c r="O115" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="P115" s="14"/>
     </row>
     <row r="116" spans="3:16">
       <c r="C116" s="14"/>
       <c r="D116" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J116" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>292</v>
+      </c>
       <c r="K116" s="14" t="s">
-        <v>24</v>
+        <v>293</v>
       </c>
       <c r="L116" s="14"/>
       <c r="M116" s="14"/>
       <c r="N116" s="14"/>
-      <c r="O116" s="14"/>
+      <c r="O116" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="P116" s="14"/>
     </row>
     <row r="117" spans="3:16">
       <c r="C117" s="14"/>
       <c r="D117" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J117" s="14"/>
       <c r="K117" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L117" s="14"/>
       <c r="M117" s="14"/>
       <c r="N117" s="14"/>
-      <c r="O117" s="14"/>
+      <c r="O117" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="P117" s="14"/>
     </row>
     <row r="118" spans="3:16">
       <c r="C118" s="14"/>
       <c r="D118" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J118" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J118" s="14" t="s">
+        <v>296</v>
+      </c>
       <c r="K118" s="14" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
       <c r="N118" s="14"/>
-      <c r="O118" s="14"/>
+      <c r="O118" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="P118" s="14"/>
     </row>
     <row r="119" spans="3:16">
       <c r="C119" s="14"/>
       <c r="D119" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J119" s="14" t="s">
-        <v>296</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="J119" s="14"/>
       <c r="K119" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
-      <c r="O119" s="14" t="s">
-        <v>196</v>
-      </c>
+      <c r="O119" s="14"/>
       <c r="P119" s="14"/>
     </row>
     <row r="120" spans="3:16">
       <c r="C120" s="14"/>
       <c r="D120" s="14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="J120" s="14"/>
       <c r="K120" s="14" t="s">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="L120" s="14"/>
       <c r="M120" s="14"/>
       <c r="N120" s="14"/>
-      <c r="O120" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="O120" s="14"/>
       <c r="P120" s="14"/>
     </row>
     <row r="121" spans="3:16">
       <c r="C121" s="14"/>
       <c r="D121" s="14" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J121" s="14" t="s">
-        <v>299</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="J121" s="14"/>
       <c r="K121" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
       <c r="N121" s="14"/>
-      <c r="O121" s="14" t="s">
-        <v>196</v>
-      </c>
+      <c r="O121" s="14"/>
       <c r="P121" s="14"/>
     </row>
     <row r="122" spans="3:16">
       <c r="C122" s="14"/>
       <c r="D122" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="J122" s="14"/>
       <c r="K122" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
       <c r="N122" s="14"/>
-      <c r="O122" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="O122" s="14"/>
       <c r="P122" s="14"/>
     </row>
     <row r="123" spans="3:16">
       <c r="C123" s="14"/>
       <c r="D123" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J123" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J123" s="14" t="s">
+        <v>303</v>
+      </c>
       <c r="K123" s="14" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
       <c r="N123" s="14"/>
       <c r="O123" s="14" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P123" s="14"/>
     </row>
     <row r="124" spans="3:16">
       <c r="C124" s="14"/>
       <c r="D124" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J124" s="14" t="s">
-        <v>194</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J124" s="14"/>
       <c r="K124" s="14" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="L124" s="14"/>
       <c r="M124" s="14"/>
       <c r="N124" s="14"/>
       <c r="O124" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P124" s="14"/>
     </row>
@@ -5021,23 +5036,25 @@
         <v>305</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J125" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>306</v>
+      </c>
       <c r="K125" s="14" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
       <c r="N125" s="14"/>
       <c r="O125" s="14" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P125" s="14"/>
     </row>
@@ -5047,23 +5064,23 @@
         <v>307</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="J126" s="14"/>
       <c r="K126" s="14" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
       <c r="N126" s="14"/>
       <c r="O126" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P126" s="14"/>
     </row>
@@ -5073,171 +5090,181 @@
         <v>308</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="J127" s="14" t="s">
-        <v>310</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="J127" s="14"/>
       <c r="K127" s="14" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
-      <c r="N127" s="14" t="s">
-        <v>311</v>
-      </c>
+      <c r="N127" s="14"/>
       <c r="O127" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P127" s="14"/>
     </row>
     <row r="128" spans="3:16">
       <c r="C128" s="14"/>
       <c r="D128" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J128" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J128" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="K128" s="14" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
       <c r="N128" s="14"/>
       <c r="O128" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P128" s="14"/>
     </row>
     <row r="129" spans="3:16">
-      <c r="C129" s="14" t="s">
-        <v>111</v>
-      </c>
+      <c r="C129" s="14"/>
       <c r="D129" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J129" s="14"/>
       <c r="K129" s="14" t="s">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c r="L129" s="14"/>
       <c r="M129" s="14"/>
       <c r="N129" s="14"/>
-      <c r="O129" s="14"/>
+      <c r="O129" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="P129" s="14"/>
     </row>
     <row r="130" spans="3:16">
       <c r="C130" s="14"/>
       <c r="D130" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J130" s="14"/>
       <c r="K130" s="14" t="s">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="L130" s="14"/>
       <c r="M130" s="14"/>
       <c r="N130" s="14"/>
-      <c r="O130" s="14"/>
+      <c r="O130" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="P130" s="14"/>
     </row>
     <row r="131" spans="3:16">
       <c r="C131" s="14"/>
       <c r="D131" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J131" s="14"/>
+        <v>315</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>316</v>
+      </c>
       <c r="K131" s="14" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L131" s="14"/>
       <c r="M131" s="14"/>
-      <c r="N131" s="14"/>
-      <c r="O131" s="14"/>
+      <c r="N131" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="O131" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="P131" s="14"/>
     </row>
     <row r="132" spans="3:16">
       <c r="C132" s="14"/>
       <c r="D132" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J132" s="14"/>
       <c r="K132" s="14" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="L132" s="14"/>
       <c r="M132" s="14"/>
       <c r="N132" s="14"/>
-      <c r="O132" s="14"/>
+      <c r="O132" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="P132" s="14"/>
     </row>
     <row r="133" spans="3:16">
-      <c r="C133" s="14"/>
+      <c r="C133" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="D133" s="14" t="s">
         <v>319</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J133" s="14"/>
       <c r="K133" s="14" t="s">
-        <v>321</v>
+        <v>59</v>
       </c>
       <c r="L133" s="14"/>
       <c r="M133" s="14"/>
@@ -5248,20 +5275,20 @@
     <row r="134" spans="3:16">
       <c r="C134" s="14"/>
       <c r="D134" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J134" s="14"/>
       <c r="K134" s="14" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="L134" s="14"/>
       <c r="M134" s="14"/>
@@ -5272,22 +5299,20 @@
     <row r="135" spans="3:16">
       <c r="C135" s="14"/>
       <c r="D135" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J135" s="14" t="s">
-        <v>324</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J135" s="14"/>
       <c r="K135" s="14" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="L135" s="14"/>
       <c r="M135" s="14"/>
@@ -5298,48 +5323,44 @@
     <row r="136" spans="3:16">
       <c r="C136" s="14"/>
       <c r="D136" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>327</v>
+        <v>140</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="J136" s="14" t="s">
-        <v>328</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J136" s="14"/>
       <c r="K136" s="14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L136" s="14"/>
       <c r="M136" s="14"/>
-      <c r="N136" s="14" t="s">
-        <v>330</v>
-      </c>
+      <c r="N136" s="14"/>
       <c r="O136" s="14"/>
       <c r="P136" s="14"/>
     </row>
     <row r="137" spans="3:16">
       <c r="C137" s="14"/>
       <c r="D137" s="14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>143</v>
+        <v>326</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="J137" s="14"/>
       <c r="K137" s="14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L137" s="14"/>
       <c r="M137" s="14"/>
@@ -5350,20 +5371,20 @@
     <row r="138" spans="3:16">
       <c r="C138" s="14"/>
       <c r="D138" s="14" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="F138" s="14"/>
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="J138" s="14"/>
       <c r="K138" s="14" t="s">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="L138" s="14"/>
       <c r="M138" s="14"/>
@@ -5374,20 +5395,22 @@
     <row r="139" spans="3:16">
       <c r="C139" s="14"/>
       <c r="D139" s="14" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J139" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J139" s="14" t="s">
+        <v>330</v>
+      </c>
       <c r="K139" s="14" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L139" s="14"/>
       <c r="M139" s="14"/>
@@ -5398,44 +5421,48 @@
     <row r="140" spans="3:16">
       <c r="C140" s="14"/>
       <c r="D140" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J140" s="14"/>
+        <v>315</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>333</v>
+      </c>
       <c r="K140" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L140" s="14"/>
       <c r="M140" s="14"/>
-      <c r="N140" s="14"/>
+      <c r="N140" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="O140" s="14"/>
       <c r="P140" s="14"/>
     </row>
     <row r="141" spans="3:16">
       <c r="C141" s="14"/>
       <c r="D141" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J141" s="14"/>
       <c r="K141" s="14" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L141" s="14"/>
       <c r="M141" s="14"/>
@@ -5446,20 +5473,20 @@
     <row r="142" spans="3:16">
       <c r="C142" s="14"/>
       <c r="D142" s="14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J142" s="14"/>
       <c r="K142" s="14" t="s">
-        <v>34</v>
+        <v>339</v>
       </c>
       <c r="L142" s="14"/>
       <c r="M142" s="14"/>
@@ -5468,234 +5495,226 @@
       <c r="P142" s="14"/>
     </row>
     <row r="143" spans="3:16">
-      <c r="C143" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="C143" s="14"/>
       <c r="D143" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>344</v>
+        <v>146</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J143" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K143" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14" t="s">
+        <v>341</v>
+      </c>
       <c r="L143" s="14"/>
       <c r="M143" s="14"/>
-      <c r="N143" s="14" t="s">
-        <v>346</v>
-      </c>
+      <c r="N143" s="14"/>
       <c r="O143" s="14"/>
       <c r="P143" s="14"/>
     </row>
     <row r="144" spans="3:16">
       <c r="C144" s="14"/>
       <c r="D144" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>348</v>
+        <v>147</v>
       </c>
       <c r="F144" s="14"/>
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J144" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K144" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14" t="s">
+        <v>343</v>
+      </c>
       <c r="L144" s="14"/>
       <c r="M144" s="14"/>
-      <c r="N144" s="14" t="s">
-        <v>349</v>
-      </c>
+      <c r="N144" s="14"/>
       <c r="O144" s="14"/>
       <c r="P144" s="14"/>
     </row>
     <row r="145" spans="3:16">
       <c r="C145" s="14"/>
       <c r="D145" s="14" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>351</v>
+        <v>148</v>
       </c>
       <c r="F145" s="14"/>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J145" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="K145" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14" t="s">
+        <v>345</v>
+      </c>
       <c r="L145" s="14"/>
       <c r="M145" s="14"/>
-      <c r="N145" s="14" t="s">
-        <v>353</v>
-      </c>
+      <c r="N145" s="14"/>
       <c r="O145" s="14"/>
       <c r="P145" s="14"/>
     </row>
     <row r="146" spans="3:16">
       <c r="C146" s="14"/>
       <c r="D146" s="14" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>355</v>
+        <v>254</v>
       </c>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J146" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="K146" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="L146" s="14"/>
       <c r="M146" s="14"/>
-      <c r="N146" s="14" t="s">
-        <v>357</v>
-      </c>
+      <c r="N146" s="14"/>
       <c r="O146" s="14"/>
       <c r="P146" s="14"/>
     </row>
     <row r="147" spans="3:16">
       <c r="C147" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" s="14"/>
       <c r="I147" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J147" s="14"/>
-      <c r="K147" s="14" t="s">
-        <v>360</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J147" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="K147" s="14"/>
       <c r="L147" s="14"/>
       <c r="M147" s="14"/>
-      <c r="N147" s="14"/>
+      <c r="N147" s="14" t="s">
+        <v>350</v>
+      </c>
       <c r="O147" s="14"/>
       <c r="P147" s="14"/>
     </row>
     <row r="148" spans="3:16">
       <c r="C148" s="14"/>
       <c r="D148" s="14" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>362</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="F148" s="14"/>
       <c r="G148" s="14"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J148" s="14"/>
-      <c r="K148" s="14" t="s">
-        <v>363</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J148" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K148" s="14"/>
       <c r="L148" s="14"/>
       <c r="M148" s="14"/>
-      <c r="N148" s="14"/>
+      <c r="N148" s="14" t="s">
+        <v>353</v>
+      </c>
       <c r="O148" s="14"/>
       <c r="P148" s="14"/>
     </row>
     <row r="149" spans="3:16">
       <c r="C149" s="14"/>
       <c r="D149" s="14" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>249</v>
+        <v>355</v>
       </c>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="14"/>
       <c r="I149" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J149" s="14"/>
-      <c r="K149" s="14" t="s">
-        <v>34</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J149" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="K149" s="14"/>
       <c r="L149" s="14"/>
       <c r="M149" s="14"/>
-      <c r="N149" s="14"/>
+      <c r="N149" s="14" t="s">
+        <v>357</v>
+      </c>
       <c r="O149" s="14"/>
       <c r="P149" s="14"/>
     </row>
     <row r="150" spans="3:16">
-      <c r="C150" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="C150" s="14"/>
       <c r="D150" s="14" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F150" s="14"/>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
       <c r="I150" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J150" s="14" t="s">
-        <v>219</v>
+        <v>360</v>
       </c>
       <c r="K150" s="14"/>
       <c r="L150" s="14"/>
       <c r="M150" s="14"/>
       <c r="N150" s="14" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="O150" s="14"/>
       <c r="P150" s="14"/>
     </row>
     <row r="151" spans="3:16">
       <c r="C151" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
       <c r="H151" s="14"/>
       <c r="I151" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J151" s="14"/>
       <c r="K151" s="14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L151" s="14"/>
       <c r="M151" s="14"/>
@@ -5706,20 +5725,22 @@
     <row r="152" spans="3:16">
       <c r="C152" s="14"/>
       <c r="D152" s="14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="F152" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>366</v>
+      </c>
       <c r="G152" s="14"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J152" s="14"/>
       <c r="K152" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L152" s="14"/>
       <c r="M152" s="14"/>
@@ -5730,20 +5751,20 @@
     <row r="153" spans="3:16">
       <c r="C153" s="14"/>
       <c r="D153" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="14"/>
       <c r="I153" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J153" s="14"/>
       <c r="K153" s="14" t="s">
-        <v>374</v>
+        <v>34</v>
       </c>
       <c r="L153" s="14"/>
       <c r="M153" s="14"/>
@@ -5752,46 +5773,52 @@
       <c r="P153" s="14"/>
     </row>
     <row r="154" spans="3:16">
-      <c r="C154" s="14"/>
+      <c r="C154" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D154" s="14" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
       <c r="I154" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J154" s="14"/>
-      <c r="K154" s="14" t="s">
-        <v>377</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J154" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K154" s="14"/>
       <c r="L154" s="14"/>
       <c r="M154" s="14"/>
-      <c r="N154" s="14"/>
+      <c r="N154" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="O154" s="14"/>
       <c r="P154" s="14"/>
     </row>
     <row r="155" spans="3:16">
-      <c r="C155" s="14"/>
+      <c r="C155" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D155" s="14" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
       <c r="H155" s="14"/>
       <c r="I155" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J155" s="14"/>
       <c r="K155" s="14" t="s">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="L155" s="14"/>
       <c r="M155" s="14"/>
@@ -5802,46 +5829,44 @@
     <row r="156" spans="3:16">
       <c r="C156" s="14"/>
       <c r="D156" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E156" s="14"/>
+        <v>373</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>374</v>
+      </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="14"/>
       <c r="I156" s="14" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="J156" s="14"/>
-      <c r="K156" s="14"/>
+      <c r="K156" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="L156" s="14"/>
       <c r="M156" s="14"/>
-      <c r="N156" s="14" t="s">
-        <v>379</v>
-      </c>
+      <c r="N156" s="14"/>
       <c r="O156" s="14"/>
       <c r="P156" s="14"/>
     </row>
     <row r="157" spans="3:16">
-      <c r="C157" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="C157" s="14"/>
       <c r="D157" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="14"/>
       <c r="I157" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J157" s="14" t="s">
-        <v>381</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J157" s="14"/>
       <c r="K157" s="14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L157" s="14"/>
       <c r="M157" s="14"/>
@@ -5852,22 +5877,20 @@
     <row r="158" spans="3:16">
       <c r="C158" s="14"/>
       <c r="D158" s="14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J158" s="14" t="s">
-        <v>384</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J158" s="14"/>
       <c r="K158" s="14" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="L158" s="14"/>
       <c r="M158" s="14"/>
@@ -5878,22 +5901,20 @@
     <row r="159" spans="3:16">
       <c r="C159" s="14"/>
       <c r="D159" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
       <c r="I159" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J159" s="14" t="s">
-        <v>386</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J159" s="14"/>
       <c r="K159" s="14" t="s">
-        <v>387</v>
+        <v>34</v>
       </c>
       <c r="L159" s="14"/>
       <c r="M159" s="14"/>
@@ -5904,46 +5925,46 @@
     <row r="160" spans="3:16">
       <c r="C160" s="14"/>
       <c r="D160" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="E160" s="14" t="s">
-        <v>376</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E160" s="14"/>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
       <c r="H160" s="14"/>
       <c r="I160" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J160" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="K160" s="14" t="s">
-        <v>377</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J160" s="14"/>
+      <c r="K160" s="14"/>
       <c r="L160" s="14"/>
       <c r="M160" s="14"/>
-      <c r="N160" s="14"/>
+      <c r="N160" s="14" t="s">
+        <v>383</v>
+      </c>
       <c r="O160" s="14"/>
       <c r="P160" s="14"/>
     </row>
     <row r="161" spans="3:16">
-      <c r="C161" s="14"/>
+      <c r="C161" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="D161" s="14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
       <c r="H161" s="14"/>
       <c r="I161" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J161" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J161" s="14" t="s">
+        <v>385</v>
+      </c>
       <c r="K161" s="14" t="s">
-        <v>34</v>
+        <v>386</v>
       </c>
       <c r="L161" s="14"/>
       <c r="M161" s="14"/>
@@ -5952,226 +5973,232 @@
       <c r="P161" s="14"/>
     </row>
     <row r="162" spans="3:16">
-      <c r="C162" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="C162" s="14"/>
       <c r="D162" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
       <c r="H162" s="14"/>
       <c r="I162" s="14" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K162" s="14"/>
+        <v>388</v>
+      </c>
+      <c r="K162" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="L162" s="14"/>
       <c r="M162" s="14"/>
-      <c r="N162" s="14" t="s">
-        <v>393</v>
-      </c>
+      <c r="N162" s="14"/>
       <c r="O162" s="14"/>
       <c r="P162" s="14"/>
     </row>
     <row r="163" spans="3:16">
       <c r="C163" s="14"/>
       <c r="D163" s="14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
       <c r="H163" s="14"/>
       <c r="I163" s="14" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J163" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K163" s="14"/>
+        <v>390</v>
+      </c>
+      <c r="K163" s="14" t="s">
+        <v>391</v>
+      </c>
       <c r="L163" s="14"/>
       <c r="M163" s="14"/>
-      <c r="N163" s="14" t="s">
-        <v>396</v>
-      </c>
+      <c r="N163" s="14"/>
       <c r="O163" s="14"/>
       <c r="P163" s="14"/>
     </row>
     <row r="164" spans="3:16">
       <c r="C164" s="14"/>
       <c r="D164" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J164" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="K164" s="14"/>
+        <v>393</v>
+      </c>
+      <c r="K164" s="14" t="s">
+        <v>381</v>
+      </c>
       <c r="L164" s="14"/>
       <c r="M164" s="14"/>
-      <c r="N164" s="14" t="s">
-        <v>399</v>
-      </c>
+      <c r="N164" s="14"/>
       <c r="O164" s="14"/>
       <c r="P164" s="14"/>
     </row>
     <row r="165" spans="3:16">
       <c r="C165" s="14"/>
       <c r="D165" s="14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>401</v>
+        <v>254</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
       <c r="H165" s="14"/>
       <c r="I165" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J165" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="K165" s="14"/>
+        <v>201</v>
+      </c>
+      <c r="J165" s="14"/>
+      <c r="K165" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="L165" s="14"/>
       <c r="M165" s="14"/>
-      <c r="N165" s="14" t="s">
-        <v>403</v>
-      </c>
+      <c r="N165" s="14"/>
       <c r="O165" s="14"/>
       <c r="P165" s="14"/>
     </row>
     <row r="166" spans="3:16">
       <c r="C166" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
       <c r="H166" s="14"/>
       <c r="I166" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J166" s="14"/>
-      <c r="K166" s="14" t="s">
-        <v>368</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J166" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="K166" s="14"/>
       <c r="L166" s="14"/>
       <c r="M166" s="14"/>
-      <c r="N166" s="14"/>
+      <c r="N166" s="14" t="s">
+        <v>397</v>
+      </c>
       <c r="O166" s="14"/>
       <c r="P166" s="14"/>
     </row>
     <row r="167" spans="3:16">
       <c r="C167" s="14"/>
       <c r="D167" s="14" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>138</v>
+        <v>399</v>
       </c>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
       <c r="H167" s="14"/>
       <c r="I167" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J167" s="14"/>
-      <c r="K167" s="14" t="s">
-        <v>315</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J167" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K167" s="14"/>
       <c r="L167" s="14"/>
       <c r="M167" s="14"/>
-      <c r="N167" s="14"/>
+      <c r="N167" s="14" t="s">
+        <v>400</v>
+      </c>
       <c r="O167" s="14"/>
       <c r="P167" s="14"/>
     </row>
     <row r="168" spans="3:16">
       <c r="C168" s="14"/>
       <c r="D168" s="14" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
       <c r="H168" s="14"/>
       <c r="I168" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J168" s="14"/>
-      <c r="K168" s="14" t="s">
-        <v>408</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J168" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K168" s="14"/>
       <c r="L168" s="14"/>
       <c r="M168" s="14"/>
-      <c r="N168" s="14"/>
+      <c r="N168" s="14" t="s">
+        <v>403</v>
+      </c>
       <c r="O168" s="14"/>
       <c r="P168" s="14"/>
     </row>
     <row r="169" spans="3:16">
       <c r="C169" s="14"/>
       <c r="D169" s="14" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F169" s="14"/>
       <c r="G169" s="14"/>
       <c r="H169" s="14"/>
       <c r="I169" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J169" s="14"/>
-      <c r="K169" s="14" t="s">
-        <v>411</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J169" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="K169" s="14"/>
       <c r="L169" s="14"/>
       <c r="M169" s="14"/>
-      <c r="N169" s="14"/>
+      <c r="N169" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="O169" s="14"/>
       <c r="P169" s="14"/>
     </row>
     <row r="170" spans="3:16">
-      <c r="C170" s="14"/>
+      <c r="C170" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="D170" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
       <c r="I170" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J170" s="14"/>
       <c r="K170" s="14" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="L170" s="14"/>
       <c r="M170" s="14"/>
@@ -6182,20 +6209,20 @@
     <row r="171" spans="3:16">
       <c r="C171" s="14"/>
       <c r="D171" s="14" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>416</v>
+        <v>139</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
       <c r="H171" s="14"/>
       <c r="I171" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J171" s="14"/>
       <c r="K171" s="14" t="s">
-        <v>417</v>
+        <v>321</v>
       </c>
       <c r="L171" s="14"/>
       <c r="M171" s="14"/>
@@ -6206,20 +6233,20 @@
     <row r="172" spans="3:16">
       <c r="C172" s="14"/>
       <c r="D172" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>249</v>
+        <v>411</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
       <c r="I172" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J172" s="14"/>
       <c r="K172" s="14" t="s">
-        <v>34</v>
+        <v>412</v>
       </c>
       <c r="L172" s="14"/>
       <c r="M172" s="14"/>
@@ -6230,48 +6257,44 @@
     <row r="173" spans="3:16">
       <c r="C173" s="14"/>
       <c r="D173" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E173" s="14"/>
+        <v>413</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>414</v>
+      </c>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="J173" s="14"/>
       <c r="K173" s="14" t="s">
-        <v>279</v>
+        <v>415</v>
       </c>
       <c r="L173" s="14"/>
       <c r="M173" s="14"/>
-      <c r="N173" s="14" t="s">
-        <v>419</v>
-      </c>
+      <c r="N173" s="14"/>
       <c r="O173" s="14"/>
       <c r="P173" s="14"/>
     </row>
     <row r="174" spans="3:16">
-      <c r="C174" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="C174" s="14"/>
       <c r="D174" s="14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="14"/>
       <c r="H174" s="14"/>
       <c r="I174" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J174" s="14" t="s">
-        <v>421</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J174" s="14"/>
       <c r="K174" s="14" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="L174" s="14"/>
       <c r="M174" s="14"/>
@@ -6282,22 +6305,20 @@
     <row r="175" spans="3:16">
       <c r="C175" s="14"/>
       <c r="D175" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>138</v>
+        <v>420</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
       <c r="I175" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J175" s="14" t="s">
-        <v>423</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J175" s="14"/>
       <c r="K175" s="14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L175" s="14"/>
       <c r="M175" s="14"/>
@@ -6308,20 +6329,20 @@
     <row r="176" spans="3:16">
       <c r="C176" s="14"/>
       <c r="D176" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>407</v>
+        <v>254</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J176" s="14"/>
       <c r="K176" s="14" t="s">
-        <v>408</v>
+        <v>34</v>
       </c>
       <c r="L176" s="14"/>
       <c r="M176" s="14"/>
@@ -6332,44 +6353,48 @@
     <row r="177" spans="3:16">
       <c r="C177" s="14"/>
       <c r="D177" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="E177" s="14" t="s">
-        <v>410</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E177" s="14"/>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="J177" s="14"/>
       <c r="K177" s="14" t="s">
-        <v>411</v>
+        <v>287</v>
       </c>
       <c r="L177" s="14"/>
       <c r="M177" s="14"/>
-      <c r="N177" s="14"/>
+      <c r="N177" s="14" t="s">
+        <v>423</v>
+      </c>
       <c r="O177" s="14"/>
       <c r="P177" s="14"/>
     </row>
     <row r="178" spans="3:16">
-      <c r="C178" s="14"/>
+      <c r="C178" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="D178" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="F178" s="14"/>
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
       <c r="I178" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J178" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J178" s="14" t="s">
+        <v>425</v>
+      </c>
       <c r="K178" s="14" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="L178" s="14"/>
       <c r="M178" s="14"/>
@@ -6380,20 +6405,22 @@
     <row r="179" spans="3:16">
       <c r="C179" s="14"/>
       <c r="D179" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>416</v>
+        <v>139</v>
       </c>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
       <c r="H179" s="14"/>
       <c r="I179" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J179" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J179" s="14" t="s">
+        <v>427</v>
+      </c>
       <c r="K179" s="14" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="L179" s="14"/>
       <c r="M179" s="14"/>
@@ -6407,17 +6434,17 @@
         <v>429</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>249</v>
+        <v>411</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
       <c r="I180" s="14" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="J180" s="14"/>
       <c r="K180" s="14" t="s">
-        <v>34</v>
+        <v>412</v>
       </c>
       <c r="L180" s="14"/>
       <c r="M180" s="14"/>
@@ -6426,586 +6453,675 @@
       <c r="P180" s="14"/>
     </row>
     <row r="181" spans="3:16">
-      <c r="C181" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="C181" s="14"/>
       <c r="D181" s="14" t="s">
         <v>430</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="14"/>
       <c r="H181" s="14"/>
       <c r="I181" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J181" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K181" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14" t="s">
+        <v>415</v>
+      </c>
       <c r="L181" s="14"/>
       <c r="M181" s="14"/>
-      <c r="N181" s="14" t="s">
-        <v>432</v>
-      </c>
+      <c r="N181" s="14"/>
       <c r="O181" s="14"/>
       <c r="P181" s="14"/>
     </row>
     <row r="182" spans="3:16">
       <c r="C182" s="14"/>
       <c r="D182" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E182" s="14" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="F182" s="14"/>
       <c r="G182" s="14"/>
       <c r="H182" s="14"/>
       <c r="I182" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J182" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K182" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14" t="s">
+        <v>418</v>
+      </c>
       <c r="L182" s="14"/>
       <c r="M182" s="14"/>
-      <c r="N182" s="14" t="s">
-        <v>435</v>
-      </c>
+      <c r="N182" s="14"/>
       <c r="O182" s="14"/>
       <c r="P182" s="14"/>
     </row>
     <row r="183" spans="3:16">
       <c r="C183" s="14"/>
       <c r="D183" s="14" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
       <c r="I183" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J183" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="K183" s="14"/>
+        <v>201</v>
+      </c>
+      <c r="J183" s="14"/>
+      <c r="K183" s="14" t="s">
+        <v>421</v>
+      </c>
       <c r="L183" s="14"/>
       <c r="M183" s="14"/>
-      <c r="N183" s="14" t="s">
-        <v>438</v>
-      </c>
+      <c r="N183" s="14"/>
       <c r="O183" s="14"/>
       <c r="P183" s="14"/>
     </row>
     <row r="184" spans="3:16">
       <c r="C184" s="14"/>
       <c r="D184" s="14" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E184" s="14" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
       <c r="H184" s="14"/>
       <c r="I184" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J184" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="K184" s="14"/>
+        <v>201</v>
+      </c>
+      <c r="J184" s="14"/>
+      <c r="K184" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="L184" s="14"/>
       <c r="M184" s="14"/>
-      <c r="N184" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="N184" s="14"/>
       <c r="O184" s="14"/>
       <c r="P184" s="14"/>
     </row>
     <row r="185" spans="3:16">
       <c r="C185" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E185" s="14" t="s">
-        <v>144</v>
+        <v>435</v>
       </c>
       <c r="F185" s="14"/>
       <c r="G185" s="14"/>
       <c r="H185" s="14"/>
       <c r="I185" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J185" s="14"/>
-      <c r="K185" s="14" t="s">
-        <v>443</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J185" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="K185" s="14"/>
       <c r="L185" s="14"/>
       <c r="M185" s="14"/>
-      <c r="N185" s="14"/>
-      <c r="O185" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="N185" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="O185" s="14"/>
       <c r="P185" s="14"/>
     </row>
     <row r="186" spans="3:16">
       <c r="C186" s="14"/>
       <c r="D186" s="14" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E186" s="14" t="s">
-        <v>144</v>
+        <v>438</v>
       </c>
       <c r="F186" s="14"/>
       <c r="G186" s="14"/>
       <c r="H186" s="14"/>
       <c r="I186" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="J186" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K186" s="14" t="s">
-        <v>443</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K186" s="14"/>
       <c r="L186" s="14"/>
       <c r="M186" s="14"/>
-      <c r="N186" s="14"/>
-      <c r="O186" s="14" t="s">
-        <v>196</v>
-      </c>
+      <c r="N186" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="O186" s="14"/>
       <c r="P186" s="14"/>
     </row>
     <row r="187" spans="3:16">
       <c r="C187" s="14"/>
       <c r="D187" s="14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E187" s="14" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F187" s="14"/>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
       <c r="I187" s="14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="J187" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K187" s="14" t="s">
-        <v>449</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="K187" s="14"/>
       <c r="L187" s="14"/>
       <c r="M187" s="14"/>
-      <c r="N187" s="14"/>
-      <c r="O187" s="14" t="s">
-        <v>196</v>
-      </c>
+      <c r="N187" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="O187" s="14"/>
       <c r="P187" s="14"/>
     </row>
     <row r="188" spans="3:16">
       <c r="C188" s="14"/>
       <c r="D188" s="14" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E188" s="14" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F188" s="14"/>
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
       <c r="I188" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J188" s="14"/>
-      <c r="K188" s="14" t="s">
-        <v>452</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J188" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="K188" s="14"/>
       <c r="L188" s="14"/>
       <c r="M188" s="14"/>
-      <c r="N188" s="14"/>
+      <c r="N188" s="14" t="s">
+        <v>445</v>
+      </c>
       <c r="O188" s="14"/>
       <c r="P188" s="14"/>
     </row>
     <row r="189" spans="3:16">
-      <c r="C189" s="14"/>
+      <c r="C189" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="D189" s="14" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E189" s="14" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
       <c r="H189" s="14"/>
       <c r="I189" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J189" s="14"/>
-      <c r="K189" s="14" t="s">
-        <v>455</v>
-      </c>
+      <c r="K189" s="14"/>
       <c r="L189" s="14"/>
       <c r="M189" s="14"/>
       <c r="N189" s="14"/>
-      <c r="O189" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="O189" s="14"/>
       <c r="P189" s="14"/>
     </row>
     <row r="190" spans="3:16">
-      <c r="C190" s="14"/>
+      <c r="C190" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="D190" s="14" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E190" s="14" t="s">
-        <v>457</v>
+        <v>145</v>
       </c>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
       <c r="H190" s="14"/>
       <c r="I190" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J190" s="14" t="s">
-        <v>458</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J190" s="14"/>
       <c r="K190" s="14" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="L190" s="14"/>
       <c r="M190" s="14"/>
       <c r="N190" s="14"/>
       <c r="O190" s="14" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="P190" s="14"/>
     </row>
     <row r="191" spans="3:16">
       <c r="C191" s="14"/>
       <c r="D191" s="14" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E191" s="14" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="F191" s="14"/>
       <c r="G191" s="14"/>
       <c r="H191" s="14"/>
       <c r="I191" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J191" s="14" t="s">
-        <v>289</v>
+        <v>451</v>
       </c>
       <c r="K191" s="14" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="L191" s="14"/>
       <c r="M191" s="14"/>
       <c r="N191" s="14"/>
       <c r="O191" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P191" s="14"/>
     </row>
     <row r="192" spans="3:16">
       <c r="C192" s="14"/>
       <c r="D192" s="14" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E192" s="14" t="s">
-        <v>135</v>
+        <v>453</v>
       </c>
       <c r="F192" s="14"/>
       <c r="G192" s="14"/>
       <c r="H192" s="14"/>
       <c r="I192" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J192" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J192" s="14" t="s">
+        <v>454</v>
+      </c>
       <c r="K192" s="14" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L192" s="14"/>
       <c r="M192" s="14"/>
       <c r="N192" s="14"/>
       <c r="O192" s="14" t="s">
-        <v>464</v>
+        <v>198</v>
       </c>
       <c r="P192" s="14"/>
     </row>
     <row r="193" spans="1:16">
       <c r="C193" s="14"/>
       <c r="D193" s="14" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E193" s="14" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F193" s="14"/>
       <c r="G193" s="14"/>
       <c r="H193" s="14"/>
       <c r="I193" s="14" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="J193" s="14"/>
       <c r="K193" s="14" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="L193" s="14"/>
       <c r="M193" s="14"/>
       <c r="N193" s="14"/>
-      <c r="O193" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="O193" s="14"/>
       <c r="P193" s="14"/>
     </row>
     <row r="194" spans="1:16">
       <c r="C194" s="14"/>
       <c r="D194" s="14" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E194" s="14" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F194" s="14"/>
       <c r="G194" s="14"/>
       <c r="H194" s="14"/>
       <c r="I194" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J194" s="14"/>
       <c r="K194" s="14" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L194" s="14"/>
       <c r="M194" s="14"/>
       <c r="N194" s="14"/>
       <c r="O194" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P194" s="14"/>
     </row>
     <row r="195" spans="1:16">
       <c r="C195" s="14"/>
       <c r="D195" s="14" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E195" s="14" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F195" s="14"/>
       <c r="G195" s="14"/>
       <c r="H195" s="14"/>
       <c r="I195" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J195" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J195" s="14" t="s">
+        <v>464</v>
+      </c>
       <c r="K195" s="14" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L195" s="14"/>
       <c r="M195" s="14"/>
       <c r="N195" s="14"/>
       <c r="O195" s="14" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P195" s="14"/>
     </row>
     <row r="196" spans="1:16">
       <c r="C196" s="14"/>
       <c r="D196" s="14" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E196" s="14" t="s">
-        <v>475</v>
+        <v>39</v>
       </c>
       <c r="F196" s="14"/>
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
       <c r="I196" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J196" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="J196" s="14" t="s">
+        <v>296</v>
+      </c>
       <c r="K196" s="14" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L196" s="14"/>
       <c r="M196" s="14"/>
       <c r="N196" s="14"/>
       <c r="O196" s="14" t="s">
-        <v>464</v>
+        <v>198</v>
       </c>
       <c r="P196" s="14"/>
     </row>
     <row r="197" spans="1:16">
-      <c r="C197" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="C197" s="14"/>
       <c r="D197" s="14" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E197" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="F197" s="14" t="s">
-        <v>479</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F197" s="14"/>
       <c r="G197" s="14"/>
       <c r="H197" s="14"/>
       <c r="I197" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J197" s="14"/>
       <c r="K197" s="14" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="L197" s="14"/>
       <c r="M197" s="14"/>
       <c r="N197" s="14"/>
       <c r="O197" s="14" t="s">
-        <v>181</v>
+        <v>470</v>
       </c>
       <c r="P197" s="14"/>
     </row>
     <row r="198" spans="1:16">
       <c r="C198" s="14"/>
       <c r="D198" s="14" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E198" s="14" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F198" s="14"/>
       <c r="G198" s="14"/>
       <c r="H198" s="14"/>
       <c r="I198" s="14" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J198" s="14"/>
       <c r="K198" s="14" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="L198" s="14"/>
       <c r="M198" s="14"/>
       <c r="N198" s="14"/>
-      <c r="O198" s="14"/>
+      <c r="O198" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="P198" s="14"/>
     </row>
     <row r="199" spans="1:16">
-      <c r="C199" s="7" t="s">
+      <c r="C199" s="14"/>
+      <c r="D199" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J199" s="14"/>
+      <c r="K199" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L199" s="14"/>
+      <c r="M199" s="14"/>
+      <c r="N199" s="14"/>
+      <c r="O199" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="P199" s="14"/>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="C200" s="14"/>
+      <c r="D200" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J200" s="14"/>
+      <c r="K200" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="L200" s="14"/>
+      <c r="M200" s="14"/>
+      <c r="N200" s="14"/>
+      <c r="O200" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="P200" s="14"/>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="C201" s="14"/>
+      <c r="D201" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J201" s="14"/>
+      <c r="K201" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="L201" s="14"/>
+      <c r="M201" s="14"/>
+      <c r="N201" s="14"/>
+      <c r="O201" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="P201" s="14"/>
+    </row>
+    <row r="202" spans="1:16">
+      <c r="C202" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J202" s="14"/>
+      <c r="K202" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="L202" s="14"/>
+      <c r="M202" s="14"/>
+      <c r="N202" s="14"/>
+      <c r="O202" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="P202" s="14"/>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="C203" s="14"/>
+      <c r="D203" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="J203" s="14"/>
+      <c r="K203" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="L203" s="14"/>
+      <c r="M203" s="14"/>
+      <c r="N203" s="14"/>
+      <c r="O203" s="14"/>
+      <c r="P203" s="14"/>
+    </row>
+    <row r="204" spans="1:16">
+      <c r="C204" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5"/>
-      <c r="P199" s="5"/>
-    </row>
-    <row r="203" spans="1:16">
-      <c r="A203" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D203" s="5" t="s">
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+      <c r="M204" s="5"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="E208" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
-      <c r="C204" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="D204" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E204" s="14"/>
-    </row>
-    <row r="205" spans="1:16">
-      <c r="C205" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="D205" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="E205" s="14"/>
-    </row>
-    <row r="206" spans="1:16">
-      <c r="C206" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="D206" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="E206" s="14"/>
-    </row>
-    <row r="207" spans="1:16">
-      <c r="C207" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
+    <row r="209" spans="1:11">
+      <c r="C209" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D209" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E209" s="14"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="B210" s="3"/>
+      <c r="C210" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D210" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E210" s="14"/>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="C211" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="E211" s="14"/>
     </row>
     <row r="212" spans="1:11">
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
+      <c r="C212" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D212" s="14" t="s">
+        <v>497</v>
+      </c>
       <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
     </row>
     <row r="213" spans="1:11">
       <c r="C213" s="7" t="s">
@@ -7013,45 +7129,31 @@
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="B216" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="E216" s="10" t="s">
-        <v>494</v>
-      </c>
+      <c r="B216" s="3"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="B217" s="17"/>
-      <c r="C217" s="21" t="s">
+      <c r="A217" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C217" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D217" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E217" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="F217" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="G217" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="H217" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="I217" s="21" t="s">
+      <c r="D217" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G217" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="K217" s="10" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -7060,11 +7162,6 @@
       <c r="E218" s="14"/>
       <c r="F218" s="14"/>
       <c r="G218" s="14"/>
-      <c r="H218" s="14"/>
-      <c r="I218" s="14"/>
-      <c r="K218" s="10" t="s">
-        <v>500</v>
-      </c>
     </row>
     <row r="219" spans="1:11">
       <c r="C219" s="7" t="s">
@@ -7074,11 +7171,70 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="H220" s="10"/>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="B222" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="B223" s="17"/>
+      <c r="C223" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D223" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E223" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="G223" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="H223" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="I223" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K223" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="14"/>
+      <c r="K224" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="225" spans="3:9">
+      <c r="C225" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+    </row>
+    <row r="226" spans="3:9">
+      <c r="H226" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7119,7 +7275,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:3">
